--- a/shipClassTests/testResults/sensedComp3.xlsx
+++ b/shipClassTests/testResults/sensedComp3.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensed Comp3_LR History" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensed Comp3_LR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -362,9 +362,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1">
+        <f>MODE(C[100, 0, 0, 3] : C[100, 0, 0, 3])</f>
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -497,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -511,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -525,7 +529,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -539,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -634,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -648,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -662,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -676,7 +680,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -690,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -704,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -718,7 +722,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -732,7 +736,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -746,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -760,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -774,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -788,7 +792,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -802,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -816,7 +820,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -830,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -844,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -858,7 +862,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -872,7 +876,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -886,7 +890,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -900,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -914,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -928,7 +932,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1197,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1211,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -1225,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -1239,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -1334,7 +1338,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1348,7 +1352,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1362,7 +1366,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1376,7 +1380,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1390,7 +1394,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1404,7 +1408,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1418,7 +1422,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1432,7 +1436,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1446,7 +1450,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1460,7 +1464,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1474,7 +1478,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1488,7 +1492,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1502,7 +1506,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1516,7 +1520,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1530,7 +1534,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1544,7 +1548,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1558,7 +1562,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1572,7 +1576,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1586,7 +1590,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1600,7 +1604,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1614,7 +1618,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1628,7 +1632,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91">
         <v>0</v>
